--- a/Unit_15_Projects_Case_Studies/IPL_T20_Dream11/IPL_T20_D11.xlsx
+++ b/Unit_15_Projects_Case_Studies/IPL_T20_Dream11/IPL_T20_D11.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PR269KB\Google Drive\Career\QuickXpert\QXI_DataScience_Sujeet\Unit_15_Projects_Case_Studies\IPL_T20_Dream11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36123C-2F15-47A6-8315-BB439A8B4E62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1D557-3F96-446A-803E-20F332C55687}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPL2020" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IPL2020'!$A$1:$AG$113</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="148">
   <si>
     <t>Team</t>
   </si>
@@ -430,9 +429,6 @@
     <t>Sarfaraj</t>
   </si>
   <si>
-    <t>Win</t>
-  </si>
-  <si>
     <t>Siraj</t>
   </si>
   <si>
@@ -467,27 +463,6 @@
   </si>
   <si>
     <t>Tyagi</t>
-  </si>
-  <si>
-    <t>bat 2nd</t>
-  </si>
-  <si>
-    <t>bat 1st</t>
-  </si>
-  <si>
-    <t>make 162+</t>
-  </si>
-  <si>
-    <t>chase 162-</t>
-  </si>
-  <si>
-    <t>1st batting</t>
-  </si>
-  <si>
-    <t>Kartik</t>
-  </si>
-  <si>
-    <t>2nd batting</t>
   </si>
   <si>
     <t>Bravo</t>
@@ -955,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F31CEA4-A3E1-4E43-B0EE-64BFDE6ED88A}">
-  <dimension ref="A1:AS113"/>
+  <dimension ref="A1:AG113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>0</v>
@@ -1026,28 +1001,28 @@
         <v>2</v>
       </c>
       <c r="J1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>141</v>
       </c>
       <c r="R1" s="23" t="s">
         <v>82</v>
@@ -1092,10 +1067,10 @@
         <v>31</v>
       </c>
       <c r="AF1" s="22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AG1" s="22" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -1573,10 +1548,10 @@
         <v>2</v>
       </c>
       <c r="X6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="3">
         <v>1</v>
@@ -2280,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="X13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="3">
         <v>2</v>
@@ -3088,10 +3063,10 @@
         <v>2</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3">
         <v>2</v>
@@ -4888,13 +4863,13 @@
         <v>3</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>69</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U39" s="20" t="s">
         <v>72</v>
@@ -5099,7 +5074,7 @@
         <v>73</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V41" s="7" t="s">
         <v>75</v>
@@ -5194,7 +5169,7 @@
         <v>38</v>
       </c>
       <c r="S42" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="T42" s="20" t="s">
         <v>49</v>
@@ -5399,7 +5374,7 @@
         <v>96</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="U44" s="7" t="s">
         <v>92</v>
@@ -6707,157 +6682,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEED9E0-FE52-4281-9A89-7F54860CA380}">
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>